--- a/src/main/resources/royxat.xlsx
+++ b/src/main/resources/royxat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Ism Familya</t>
   </si>
@@ -26,40 +26,19 @@
     <t>Vaqt</t>
   </si>
   <si>
-    <t>Sherbek</t>
+    <t>Fazliddin Xamdamov</t>
   </si>
   <si>
-    <t>Asistent</t>
+    <t>Assistant</t>
   </si>
   <si>
     <t>Osh</t>
   </si>
   <si>
-    <t>2022-03-12T08:01:24</t>
+    <t>2022-03-14T12:49:23.242951</t>
   </si>
   <si>
-    <t>Bekjon</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Chauchvara</t>
-  </si>
-  <si>
-    <t>2022-03-12T08:01:28</t>
-  </si>
-  <si>
-    <t>Faazliddin</t>
-  </si>
-  <si>
-    <t>Mentor</t>
-  </si>
-  <si>
-    <t>Bedri</t>
-  </si>
-  <si>
-    <t>2022-03-12T08:01:27</t>
+    <t>2022-03-14T13:22:13.154746</t>
   </si>
 </sst>
 </file>
@@ -104,7 +83,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -140,30 +119,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/royxat.xlsx
+++ b/src/main/resources/royxat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Ism Familya</t>
   </si>
@@ -29,16 +29,79 @@
     <t>Fazliddin Xamdamov</t>
   </si>
   <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Chuchvara</t>
+  </si>
+  <si>
+    <t>2022-03-16T14:21:08.923462</t>
+  </si>
+  <si>
+    <t>Otbivnoy</t>
+  </si>
+  <si>
+    <t>2022-03-16T15:24:45.414131</t>
+  </si>
+  <si>
+    <t>Durbek Ataboyev</t>
+  </si>
+  <si>
+    <t>Asistent</t>
+  </si>
+  <si>
+    <t>Kiyvskiy</t>
+  </si>
+  <si>
+    <t>2022-03-16T15:25:40.093303</t>
+  </si>
+  <si>
+    <t>Ozodbek Yaxshiboyev</t>
+  </si>
+  <si>
+    <t>2022-03-16T15:25:57.677759</t>
+  </si>
+  <si>
+    <t>Anvarbek Turdaliyev</t>
+  </si>
+  <si>
+    <t>Do'lma</t>
+  </si>
+  <si>
+    <t>2022-03-16T15:26:55.041795</t>
+  </si>
+  <si>
+    <t>Fayziyev Mehrob</t>
+  </si>
+  <si>
     <t>Assistant</t>
   </si>
   <si>
-    <t>Osh</t>
-  </si>
-  <si>
-    <t>2022-03-14T12:49:23.242951</t>
-  </si>
-  <si>
-    <t>2022-03-14T13:22:13.154746</t>
+    <t>Bifstrogan</t>
+  </si>
+  <si>
+    <t>2022-03-16T15:29:41.242414</t>
+  </si>
+  <si>
+    <t>/start</t>
+  </si>
+  <si>
+    <t>2022-03-16T15:45:35.226010</t>
+  </si>
+  <si>
+    <t>Makaron poflotski</t>
+  </si>
+  <si>
+    <t>2022-03-16T15:49:32.758342</t>
+  </si>
+  <si>
+    <t>Komilov Anvar</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>2022-03-16T15:50:28.819720</t>
   </si>
 </sst>
 </file>
@@ -83,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -125,10 +188,108 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
